--- a/Files/SPE/DESIGN/前后端数据连接设计.xlsx
+++ b/Files/SPE/DESIGN/前后端数据连接设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>服务名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,104 @@
   </si>
   <si>
     <t>参数名称（前端定义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示登陆结果，可能存在手机未注册，密码错误，登陆成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示注册结果，可能存在注册成功，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserFocusAction</t>
+  </si>
+  <si>
+    <t>展示用户关注的用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSONArray，包括</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注的用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要查询对象的Uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示当前用户被关注的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focusNum</t>
+  </si>
+  <si>
+    <t>关注数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要查询对象的Uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,22 +479,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="4" max="4" width="41.75" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,10 +506,112 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Files/SPE/DESIGN/前后端数据连接设计.xlsx
+++ b/Files/SPE/DESIGN/前后端数据连接设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>服务名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,101 +38,373 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>登陆信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示登陆结果，可能存在手机未注册，密码错误，登陆成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示注册结果，可能存在注册成功，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserFocusAction</t>
+  </si>
+  <si>
+    <t>展示用户关注的用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSONArray，包括</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注的用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要查询对象的Uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示当前用户被关注的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focusNum</t>
+  </si>
+  <si>
+    <t>关注数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要查询对象的Uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInfoAction</t>
+  </si>
+  <si>
+    <t>获取用户的基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSONArray包括</t>
+  </si>
+  <si>
+    <t>Uid</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>用户手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>用户年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要查询的用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户发表过的主题内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSONArray包括</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cid</t>
+  </si>
+  <si>
+    <t>主题所属圈子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ttitle</t>
+  </si>
+  <si>
+    <t>主题标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tdate</t>
+  </si>
+  <si>
+    <t>主题发表日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调用的服务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetpubAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户发表过的资源内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFucosList</t>
+  </si>
+  <si>
+    <t>GetFucosNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPubRec</t>
+  </si>
+  <si>
+    <t>GetPubTheme</t>
+  </si>
+  <si>
+    <t>GetpraiseAction</t>
+  </si>
+  <si>
+    <t>获取用户被赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatethemeAction</t>
+  </si>
+  <si>
+    <t>创建新的主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前圈子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建结果：主题发表工程或者失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetThemeAction</t>
+  </si>
+  <si>
+    <t>获取圈子内发表过的主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题发表时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表用户昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThemeinfoAction</t>
+  </si>
+  <si>
+    <t>获取主题的具体信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>楼主年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼主性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tcontent</t>
+  </si>
+  <si>
+    <t>主题内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tpraise</t>
+  </si>
+  <si>
+    <t>主题获赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题发表时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前圈子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要获取的主题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetThemRyAction</t>
+  </si>
+  <si>
+    <t>当前主题的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前主题的回复列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recontent</t>
+  </si>
+  <si>
+    <t>Repraise</t>
+  </si>
+  <si>
+    <t>Redate</t>
+  </si>
+  <si>
+    <t>回复用户的昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复用户的年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复用户性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复获得的点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddpraiseAction</t>
+  </si>
+  <si>
+    <t>给主题点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LoginAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示登陆结果，可能存在手机未注册，密码错误，登陆成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示注册结果，可能存在注册成功，注册失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserFocusAction</t>
-  </si>
-  <si>
-    <t>展示用户关注的用户列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSONArray，包括</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注的用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要查询对象的Uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示当前用户被关注的数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>focusNum</t>
-  </si>
-  <si>
-    <t>关注数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要查询对象的Uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,18 +751,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="41.75" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
     <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
@@ -506,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -517,101 +789,476 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
+      <c r="F11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Files/SPE/DESIGN/前后端数据连接设计.xlsx
+++ b/Files/SPE/DESIGN/前后端数据连接设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
   <si>
     <t>服务名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,176 +235,200 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GetPubRec</t>
+  </si>
+  <si>
+    <t>GetPubTheme</t>
+  </si>
+  <si>
+    <t>GetpraiseAction</t>
+  </si>
+  <si>
+    <t>获取用户被赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatethemeAction</t>
+  </si>
+  <si>
+    <t>创建新的主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前圈子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建结果：主题发表工程或者失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetThemeAction</t>
+  </si>
+  <si>
+    <t>获取圈子内发表过的主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题发表时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表用户昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThemeinfoAction</t>
+  </si>
+  <si>
+    <t>获取主题的具体信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>楼主年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼主性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tcontent</t>
+  </si>
+  <si>
+    <t>主题内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tpraise</t>
+  </si>
+  <si>
+    <t>主题获赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题发表时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前圈子ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要获取的主题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetThemRyAction</t>
+  </si>
+  <si>
+    <t>当前主题的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前主题的回复列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recontent</t>
+  </si>
+  <si>
+    <t>Repraise</t>
+  </si>
+  <si>
+    <t>Redate</t>
+  </si>
+  <si>
+    <t>回复用户的昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复用户的年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复用户性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复获得的点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddpraiseAction</t>
+  </si>
+  <si>
+    <t>给主题点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>关注用户的状态描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示关注这个用户的其他人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的状态描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GetFucosList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GetFucosNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetPubRec</t>
-  </si>
-  <si>
-    <t>GetPubTheme</t>
-  </si>
-  <si>
-    <t>GetpraiseAction</t>
-  </si>
-  <si>
-    <t>获取用户被赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreatethemeAction</t>
-  </si>
-  <si>
-    <t>创建新的主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前圈子ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户的ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建结果：主题发表工程或者失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetThemeAction</t>
-  </si>
-  <si>
-    <t>获取圈子内发表过的主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题发表时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表用户昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThemeinfoAction</t>
-  </si>
-  <si>
-    <t>获取主题的具体信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>楼主年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼主性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tcontent</t>
-  </si>
-  <si>
-    <t>主题内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tpraise</t>
-  </si>
-  <si>
-    <t>主题获赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题发表时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前圈子ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要获取的主题ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetThemRyAction</t>
-  </si>
-  <si>
-    <t>当前主题的ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前主题的回复列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recontent</t>
-  </si>
-  <si>
-    <t>Repraise</t>
-  </si>
-  <si>
-    <t>Redate</t>
-  </si>
-  <si>
-    <t>回复用户的昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复用户的年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复用户性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复获得的点赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddpraiseAction</t>
-  </si>
-  <si>
-    <t>给主题点赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginAction</t>
+    <t>GetWhofucos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,7 +813,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -861,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -884,381 +908,427 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="s">
-        <v>58</v>
+      <c r="F15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>30</v>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
+      <c r="A23" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
       <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
       <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
         <v>65</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E40" t="s">
         <v>66</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="E32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C44" t="s">
         <v>32</v>
       </c>
-      <c r="E37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
         <v>44</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
         <v>48</v>
       </c>
       <c r="D46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" t="s">
         <v>93</v>
       </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Files/SPE/DESIGN/前后端数据连接设计.xlsx
+++ b/Files/SPE/DESIGN/前后端数据连接设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
   <si>
     <t>服务名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,13 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AddpraiseAction</t>
-  </si>
-  <si>
-    <t>给主题点赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LoginAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,6 +422,52 @@
   </si>
   <si>
     <t>GetWhofucos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetUsernuminfoAction</t>
+  </si>
+  <si>
+    <t>获取用户的各种参数信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSONObject包括</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubthemeNum</t>
+  </si>
+  <si>
+    <t>pubrecNum</t>
+  </si>
+  <si>
+    <t>befocusNum</t>
+  </si>
+  <si>
+    <t>用户关注的其他人的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布的主题数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布的资源数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被关注的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PraiNum</t>
+  </si>
+  <si>
+    <t>praiNum</t>
+  </si>
+  <si>
+    <t>用户被赞数目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,15 +814,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
@@ -813,7 +852,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -885,7 +924,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -909,10 +948,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -929,24 +968,24 @@
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -962,12 +1001,12 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -1096,7 +1135,7 @@
         <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
         <v>61</v>
@@ -1321,14 +1360,57 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
